--- a/docs/TOGAF/Artifacts/Catalogs/Preliminary/McSOC Principles Catalog.xlsx
+++ b/docs/TOGAF/Artifacts/Catalogs/Preliminary/McSOC Principles Catalog.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="199">
   <si>
     <t>Architecture Principles</t>
   </si>
@@ -230,7 +230,10 @@
     <t>PRN_ARC_01</t>
   </si>
   <si>
-    <t>Enterprise Architecture</t>
+    <t>“Say what you do”</t>
+  </si>
+  <si>
+    <t>Full documentation of capabilities and limitations of McSOC. </t>
   </si>
   <si>
     <t>PRN_ARC_02</t>
@@ -386,14 +389,13 @@
     <t>Data is a valuable corporate resource; it has real, measurable value. In simple terms, the purpose of data is to aid decision-making. Accurate, timely data is critical to accurate, timely decisions. Most corporate assets are carefully managed, and data is no exception. Data is the foundation of our decision-making, so we must also carefully manage data to ensure that we know where it is, can rely upon its accuracy, and can obtain it when and where we need it.</t>
   </si>
   <si>
-    <t>    This is one of three closely-related principles regarding data: data is an asset; data is shared; and data is easily accessible. The implication is that there is an education task to ensure that all organizations within the enterprise understand the relationship between value of data, sharing of data, and accessibility to data.
+    <t>This is one of three closely-related principles regarding data: data is an asset; data is shared; and data is easily accessible. The implication is that there is an education task to ensure that all organizations within the enterprise understand the relationship between value of data, sharing of data, and accessibility to data.
     Stewards must have the authority and means to manage the data for which they are accountable.
     We must make the cultural transition from "data ownership" thinking to "data stewardship" thinking.
     The role of data steward is critical because obsolete, incorrect, or inconsistent data could be passed to enterprise personnel and adversely affect decisions across the enterprise.
     Part of the role of data steward, who manages the data, is to ensure data quality. Procedures must be developed and used to prevent and correct errors in the information and to improve those processes that produce flawed information. Data quality will need to be measured and steps taken to improve data quality - it is probable that policy and procedures will need to be developed for this as well.
     A forum with comprehensive enterprise-wide representation should decide on process changes suggested by the steward.
-    Since data is an asset of value to the entire enterprise, data stewards accountable for properly managing the data must be assigned at the enterprise level.
-</t>
+    Since data is an asset of value to the entire enterprise, data stewards accountable for properly managing the data must be assigned at the enterprise level.</t>
   </si>
   <si>
     <t>PRN_IN_02</t>
@@ -402,10 +404,10 @@
     <t>Data is shared</t>
   </si>
   <si>
-    <t>Timely access to accurate data is essential to improving the quality and efficiency of enterprise decision-making. It is less costly to maintain timely, accurate data in a single application, and then share it, than it is to maintain duplicative data in multiple applications. The enterprise holds a wealth of data, but it is stored in hundreds of incompatible stovepipe databases. The speed of data collection, creation, transfer, and assimilation is driven by the ability of the organization to efficiently share these islands of data across the organization. </t>
-  </si>
-  <si>
-    <t>    This is one of three closely-related principles regarding data: data is an asset; data is shared; and data is easily accessible. The implication is that there is an education task to ensure that all organizations within the enterprise understand the relationship between value of data, sharing of data, and accessibility to data.
+    <t>Timely access to accurate data is essential to improving the quality and efficiency of enterprise decision-making. It is less costly to maintain timely, accurate data in a single application, and then share it, than it is to maintain duplicative data in multiple applications. The enterprise holds a wealth of data, but it is stored in hundreds of incompatible stovepipe databases. The speed of data collection, creation, transfer, and assimilation is driven by the ability of the organization to efficiently share these islands of data across the organization.</t>
+  </si>
+  <si>
+    <t>This is one of three closely-related principles regarding data: data is an asset; data is shared; and data is easily accessible. The implication is that there is an education task to ensure that all organizations within the enterprise understand the relationship between value of data, sharing of data, and accessibility to data.
     To enable data sharing we must develop and abide by a common set of policies, procedures, and standards governing data management and access for both the short and the long term.
     For the short term, to preserve our significant investment in legacy systems, we must invest in software capable of migrating legacy system data into a shared data environment.
     We will also need to develop standard data models, data elements, and other metadata that defines this shared environment and develop a repository system for storing this metadata to make it accessible.
@@ -413,8 +415,7 @@
     For both the short term and the long term we must adopt common methods and tools for creating, maintaining, and accessing the data shared across the enterprise.
     Data sharing will require a significant cultural change.
     This principle of data sharing will continually "bump up against" the principle of data security. Under no circumstances will the data sharing principle cause confidential data to be compromised.
-    Data made available for sharing will have to be relied upon by all users to execute their respective tasks. This will ensure that only the most accurate and timely data is relied upon for decision-making. Shared data will become the enterprise-wide "virtual single source" of data.
-</t>
+    Data made available for sharing will have to be relied upon by all users to execute their respective tasks. This will ensure that only the most accurate and timely data is relied upon for decision-making. Shared data will become the enterprise-wide "virtual single source" of data.</t>
   </si>
   <si>
     <t>PRN_IN_03</t>
@@ -423,7 +424,7 @@
     <t>Data is accessible</t>
   </si>
   <si>
-    <t>    Wide access to data leads to efficiency and effectiveness in decision-making, and affords timely response to information requests and service delivery. Using information must be considered from an enterprise perspective to allow access by a wide variety of users. Staff time is saved and consistency of data is improved.
+    <t>Wide access to data leads to efficiency and effectiveness in decision-making, and affords timely response to information requests and service delivery. Using information must be considered from an enterprise perspective to allow access by a wide variety of users. Staff time is saved and consistency of data is improved.
 Implications</t>
   </si>
   <si>
@@ -440,16 +441,15 @@
     <t>Data Trustee</t>
   </si>
   <si>
-    <t>One of the benefits of an architected environment is the ability to share data (e.g., text, video, sound, etc.) across the enterprise. As the degree of data sharing grows and business units rely upon common information, it becomes essential that only the data trustee makes decisions about the content of data. Since data can lose its integrity when it is entered multiple times, the data trustee will have sole responsibility for data entry which eliminates redundant human effort and data storage resources. </t>
-  </si>
-  <si>
-    <t>    Real trusteeship dissolves the data "ownership" issues and allows the data to be available to meet all users' needs. This implies that a cultural change from data "ownership" to data "trusteeship" may be required.
+    <t>One of the benefits of an architected environment is the ability to share data (e.g., text, video, sound, etc.) across the enterprise. As the degree of data sharing grows and business units rely upon common information, it becomes essential that only the data trustee makes decisions about the content of data. Since data can lose its integrity when it is entered multiple times, the data trustee will have sole responsibility for data entry which eliminates redundant human effort and data storage resources.</t>
+  </si>
+  <si>
+    <t>Real trusteeship dissolves the data "ownership" issues and allows the data to be available to meet all users' needs. This implies that a cultural change from data "ownership" to data "trusteeship" may be required.
     The data trustee will be responsible for meeting quality requirements levied upon the data for which the trustee is accountable.
     It is essential that the trustee has the ability to provide user confidence in the data based upon attributes such as "data source".
     It is essential to identify the true source of the data in order that the data authority can be assigned this trustee responsibility. This does not mean that classified sources will be revealed nor does it mean the source will be the trustee.
     Information should be captured electronically once and immediately validated as close to the source as possible. Quality control measures must be implemented to ensure the integrity of the data.
-    As a result of sharing data across the enterprise, the trustee is accountable and responsible for the accuracy and currency of their designated data element(s) and, subsequently, must then recognize the importance of this trusteeship responsibility.
-</t>
+    As a result of sharing data across the enterprise, the trustee is accountable and responsible for the accuracy and currency of their designated data element(s) and, subsequently, must then recognize the importance of this trusteeship responsibility.</t>
   </si>
   <si>
     <t>PRN_IN_05</t>
@@ -466,8 +466,7 @@
     Whenever a new data definition is required, the definition effort will be co-ordinated and reconciled with the corporate "glossary" of data descriptions. The enterprise data administrator will provide this co-ordination.
     Ambiguities resulting from multiple parochial definitions of data must give way to accepted enterprise-wide definitions and understanding.
     Multiple data standardization initiatives need to be co-ordinated.
-    Functional data administration responsibilities must be assigned.
-</t>
+    Functional data administration responsibilities must be assigned.</t>
   </si>
   <si>
     <t>PRN_IN_06</t>
@@ -483,13 +482,12 @@
 Existing laws and regulations require the safeguarding of national security and the privacy of data, while permitting free and open access. Pre-decisional (work-in-progress, not yet authorized for release) information must be protected to avoid unwarranted speculation, misinterpretation, and inappropriate use.</t>
   </si>
   <si>
-    <t>  Aggregation of data, both classified and not, will create a large target requiring review and de-classification procedures to maintain appropriate control. Data owners and/or functional users must determine whether the aggregation results in an increased classification level. We will need appropriate policy and procedures to handle this review and de-classification. Access to information based on a need-to-know policy will force regular reviews of the body of information.
+    <t>Aggregation of data, both classified and not, will create a large target requiring review and de-classification procedures to maintain appropriate control. Data owners and/or functional users must determine whether the aggregation results in an increased classification level. We will need appropriate policy and procedures to handle this review and de-classification. Access to information based on a need-to-know policy will force regular reviews of the body of information.
     The current practice of having separate systems to contain different classifications needs to be rethought. Is there a software solution to separating classified and unclassified data? The current hardware solution is unwieldy, inefficient, and costly. It is more expensive to manage unclassified data on a classified system. Currently, the only way to combine the two is to place the unclassified data on the classified system, where it must remain.
     In order to adequately provide access to open information while maintaining secure information, security needs must be identified and developed at the data level, not the application level.
     Data security safeguards can be put in place to restrict access to "view only", or "never see". Sensitivity labeling for access to pre-decisional, decisional, classified, sensitive, or proprietary information must be determined.
     Security must be designed into data elements from the beginning; it cannot be added later. Systems, data, and technologies must be protected from unauthorized access and manipulation. Headquarters information must be safeguarded against inadvertent or unauthorized alteration, sabotage, disaster, or disclosure.
-    Need new policies on managing duration of protection for pre-decisional information and other works-in-progress, in consideration of content freshness.
-</t>
+    Need new policies on managing duration of protection for pre-decisional information and other works-in-progress, in consideration of content freshness.</t>
   </si>
   <si>
     <t>PRN_IN_07</t>
@@ -550,12 +548,11 @@
 Realizing that every decision made with respect to IT makes us dependent on that technology, the intent of this principle is to ensure that Application Software is not dependent on specific hardware and operating systems software.</t>
   </si>
   <si>
-    <t>    This principle will require standards which support portability.
+    <t>This principle will require standards which support portability.
     For Commercial Off-The-Shelf (COTS) and Government Off-The-Shelf (GOTS) applications, there may be limited current choices, as many of these applications are technology and platform-dependent.
     Subsystem interfaces will need to be developed to enable legacy applications to interoperate with applications and operating environments developed under the enterprise architecture.
     Middleware should be used to decouple applications from specific software solutions.
-    As an example, this principle could lead to use of Java, and future Java-like protocols, which give a high degree of priority to platform-independence.
-</t>
+    As an example, this principle could lead to use of Java, and future Java-like protocols, which give a high degree of priority to platform-independence.</t>
   </si>
   <si>
     <t>PRN_AP_02</t>
@@ -571,9 +568,8 @@
 Using an application should be as intuitive as driving a different car.</t>
   </si>
   <si>
-    <t>    Applications will be required to have a common "look-and-feel" and support ergonomic requirements. Hence, the common look-and-feel standard must be designed and usability test criteria must be developed.
-    Guidelines for user interfaces should not be constrained by narrow assumptions about user location, language, systems training, or physical capability. Factors such as linguistics, customer physical infirmities (visual acuity, ability to use keyboard/mouse), and proficiency in the use of technology have broad ramifications in determining the ease-of-use of an application.
-</t>
+    <t>Applications will be required to have a common "look-and-feel" and support ergonomic requirements. Hence, the common look-and-feel standard must be designed and usability test criteria must be developed.
+    Guidelines for user interfaces should not be constrained by narrow assumptions about user location, language, systems training, or physical capability. Factors such as linguistics, customer physical infirmities (visual acuity, ability to use keyboard/mouse), and proficiency in the use of technology have broad ramifications in determining the ease-of-use of an application.</t>
   </si>
   <si>
     <t>PRN_AP_03</t>
@@ -636,68 +632,39 @@
     <t>PRN_TI_01</t>
   </si>
   <si>
-    <t>Requirements-Based Change</t>
-  </si>
-  <si>
-    <t>    Only in response to business needs are changes to applications and technology made.</t>
-  </si>
-  <si>
-    <t>This principle will foster an atmosphere where the information environment changes in response to the needs of the business, rather than having the business change in response to IT changes. This is to ensure that the purpose of the information support - the transaction of business - is the basis for any proposed change. Unintended effects on business due to IT changes will be minimized. A change in technology may provide an opportunity to improve the business process and, hence, change business needs</t>
-  </si>
-  <si>
-    <t>
-    Changes in implementation will follow full examination of the proposed changes using the enterprise architecture.
+    <t>“Do what you say”</t>
+  </si>
+  <si>
+    <t>Continuous testing of capabilities.</t>
+  </si>
+  <si>
+    <t>Changes in implementation will follow full examination of the proposed changes using the enterprise architecture.
     We don't fund a technical improvement or system development unless a documented business need exists.
     Change management processes conforming to this principle will be developed and implemented.
-    This principle may bump up against the responsive change principle. We must ensure the requirements documentation process does not hinder responsive change to meet legitimate business needs. The purpose of this principle is to keep us focused on business, not technology needs - responsive change is also a business need.
-</t>
+    This principle may bump up against the responsive change principle. We must ensure the requirements documentation process does not hinder responsive change to meet legitimate business needs. The purpose of this principle is to keep us focused on business, not technology needs - responsive change is also a business need.</t>
   </si>
   <si>
     <t>PRN_TI_02</t>
   </si>
   <si>
-    <t>Responsive Change Management</t>
-  </si>
-  <si>
-    <t>    Changes to the enterprise information environment are implemented in a timely manner.</t>
-  </si>
-  <si>
-    <t>If people are to be expected to work within the enterprise information environment, that information environment must be responsive to their needs.</t>
-  </si>
-  <si>
-    <t>
-    We have to develop processes for managing and implementing change that do not create delays.
+    <t>We have to develop processes for managing and implementing change that do not create delays.
     A user who feels a need for change will need to connect with a "business expert" to facilitate explanation and implementation of that need.
     If we are going to make changes, we must keep the architectures updated.
     Adopting this principle might require additional resources.
-    This will conflict with other principles (e.g., maximum enterprise-wide benefit, enterprise-wide applications, etc.).
-</t>
+    This will conflict with other principles (e.g., maximum enterprise-wide benefit, enterprise-wide applications, etc.).</t>
   </si>
   <si>
     <t>PRN_TI_03</t>
   </si>
   <si>
-    <t>Control Technical Diversity</t>
-  </si>
-  <si>
-    <t>    Technological diversity is controlled to minimize the non-trivial cost of maintaining expertise in and connectivity between multiple processing environments.</t>
-  </si>
-  <si>
-    <t>There is a real, non-trivial cost of infrastructure required to support alternative technologies for processing environments. There are further infrastructure costs incurred to keep multiple processor constructs interconnected and maintained.
-Limiting the number of supported components will simplify maintainability and reduce costs.
-The business advantages of minimum technical diversity include: standard packaging of components; predictable implementation impact; predictable valuations and returns; redefined testing; utility status; and increased flexibility to accommodate technological advancements. Common technology across the enterprise brings the benefits of economies of scale to the enterprise. Technical administration and support costs are better controlled when limited resources can focus on this shared set of technology.</t>
-  </si>
-  <si>
-    <t>
-    Policies, standards, and procedures that govern acquisition of technology must be tied directly to this principle.
+    <t>Policies, standards, and procedures that govern acquisition of technology must be tied directly to this principle.
     Technology choices will be constrained by the choices available within the technology blueprint. Procedures for augmenting the acceptable technology set to meet evolving requirements will have to be developed and put in place.
     We are not freezing our technology baseline. We welcome technology advances and will change the technology blueprint when compatibility with the current infrastructure, improvement in operational efficiency, or a required capability has been demonstrated.
     We have to develop processes for managing and implementing change that do not create delays.
     A user who feels a need for change will need to connect with a "business expert" to facilitate explanation and implementation of that need.
     If we are going to make changes, we must keep the architectures updated.
     Adopting this principle might require additional resources.
-    This will conflict with other principles (e.g., maximum enterprise-wide benefit, enterprise-wide applications, etc.).
-</t>
+    This will conflict with other principles (e.g., maximum enterprise-wide benefit, enterprise-wide applications, etc.).</t>
   </si>
   <si>
     <t>PRN_TI_04</t>
@@ -881,14 +848,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00_)"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="M/D/YY;@"/>
-    <numFmt numFmtId="168" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="M/D/YY;@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -912,27 +877,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -941,6 +885,12 @@
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -974,24 +924,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1023,7 +961,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1047,53 +985,37 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1101,11 +1023,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,20 +1031,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1134,18 +1048,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Grey" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Input [yellow]" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Normal - Style1" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Percent [2]" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Style 1" xfId="24" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1219,307 +1128,309 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1544,7 +1455,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1563,7 +1474,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1607,321 +1518,321 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1965,7 +1876,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2009,351 +1920,351 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>80</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2377,7 +2288,7 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2397,7 +2308,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2441,319 +2352,319 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="I4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2778,7 +2689,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2797,7 +2708,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2839,335 +2750,315 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3211,7 +3102,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3255,303 +3146,303 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3595,7 +3486,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3639,303 +3530,303 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/TOGAF/Artifacts/Catalogs/Preliminary/McSOC Principles Catalog.xlsx
+++ b/docs/TOGAF/Artifacts/Catalogs/Preliminary/McSOC Principles Catalog.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="207">
   <si>
     <t>Architecture Principles</t>
   </si>
@@ -233,7 +233,7 @@
     <t>“Say what you do”</t>
   </si>
   <si>
-    <t>Full documentation of capabilities and limitations of McSOC. </t>
+    <t>Full documentation of capabilities and limitations of McSOC.</t>
   </si>
   <si>
     <t>PRN_ARC_02</t>
@@ -724,13 +724,37 @@
     <t>PRN_SE_01</t>
   </si>
   <si>
+    <t>Defense-in-depth: Virtual</t>
+  </si>
+  <si>
+    <t>In a traditional architecture, this would be the physical layer. In this virtualized environment, it is the virtual server itself.</t>
+  </si>
+  <si>
     <t>PRN_SE_02</t>
   </si>
   <si>
+    <t>Defense-in-depth: Network</t>
+  </si>
+  <si>
+    <t>Routing, Network Firewalls, End point Firewalls, encryption, No unnecessary services</t>
+  </si>
+  <si>
     <t>PRN_SE_03</t>
   </si>
   <si>
+    <t>Defense-in-depth: Host</t>
+  </si>
+  <si>
+    <t>Secure configuration and software patching</t>
+  </si>
+  <si>
     <t>PRN_SE_04</t>
+  </si>
+  <si>
+    <t>Defense-in-depth: Application</t>
+  </si>
+  <si>
+    <t>Secure configuration, role-based access control, encryption</t>
   </si>
   <si>
     <t>PRN_SE_05</t>
@@ -1067,7 +1091,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2350,7 +2374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>103</v>
       </c>
@@ -2373,7 +2397,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>108</v>
       </c>
@@ -3083,7 +3107,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3144,12 +3168,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -3159,12 +3187,16 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -3174,12 +3206,16 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -3189,12 +3225,16 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -3206,7 +3246,7 @@
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
@@ -3221,7 +3261,7 @@
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
@@ -3236,7 +3276,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
@@ -3251,7 +3291,7 @@
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
@@ -3266,7 +3306,7 @@
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
@@ -3281,7 +3321,7 @@
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="11"/>
@@ -3296,7 +3336,7 @@
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
@@ -3311,7 +3351,7 @@
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3326,7 +3366,7 @@
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3341,7 +3381,7 @@
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3356,7 +3396,7 @@
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3371,7 +3411,7 @@
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3386,7 +3426,7 @@
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3401,7 +3441,7 @@
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3416,7 +3456,7 @@
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3431,7 +3471,7 @@
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3486,7 +3526,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3530,7 +3570,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3545,7 +3585,7 @@
     </row>
     <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3560,7 +3600,7 @@
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="10"/>
@@ -3575,7 +3615,7 @@
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
@@ -3590,7 +3630,7 @@
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
@@ -3605,7 +3645,7 @@
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
@@ -3620,7 +3660,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
@@ -3635,7 +3675,7 @@
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
@@ -3650,7 +3690,7 @@
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
@@ -3665,7 +3705,7 @@
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="11"/>
@@ -3680,7 +3720,7 @@
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
@@ -3695,7 +3735,7 @@
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3710,7 +3750,7 @@
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3725,7 +3765,7 @@
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3740,7 +3780,7 @@
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3755,7 +3795,7 @@
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3770,7 +3810,7 @@
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3785,7 +3825,7 @@
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3800,7 +3840,7 @@
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3815,7 +3855,7 @@
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
